--- a/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BC3C9-2AEA-4D55-99D9-9CD7D7DEACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B50FB-D734-47DD-B8A3-EAD024EA80FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>PERIOD</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>12/1,6,7,9/2022</t>
+  </si>
+  <si>
+    <t>SVL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/21-22/2022</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1396,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
@@ -1749,12 +1755,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A106"/>
+      <pane ySplit="3576" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="N6" sqref="N6"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,7 +1921,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.0440000000000005</v>
+        <v>2.0440000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4069,54 +4075,64 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H112" s="39">
-        <v>1</v>
-      </c>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20" t="s">
-        <v>131</v>
+      <c r="K112" s="47" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+      <c r="A113" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D113" s="39">
+        <v>3</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
-      <c r="B114" s="20"/>
+      <c r="B114" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
+      <c r="D114" s="39">
+        <v>1</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
@@ -4126,7 +4142,9 @@
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="47">
+        <v>44897</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
@@ -4385,20 +4403,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H131" s="43"/>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8897,17 +8931,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{FAD31659-8FE5-412C-A38A-9264A62AED2F}">
